--- a/results/counter.xlsx
+++ b/results/counter.xlsx
@@ -44,34 +44,34 @@
     <t xml:space="preserve">bet ratio</t>
   </si>
   <si>
-    <t xml:space="preserve">3l b6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5L b6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3L b7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5L b7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">throp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hi opt 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hi opt 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ko</t>
+    <t xml:space="preserve">3 levels, bound 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 levels, bound 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 levels, bound 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 levels, bound 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thorp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High opt 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High opt 2</t>
   </si>
   <si>
     <t xml:space="preserve">Omega 2</t>
   </si>
   <si>
     <t xml:space="preserve">baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KO</t>
   </si>
 </sst>
 </file>
@@ -86,6 +86,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -179,7 +180,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -772,15 +773,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="L21" activeCellId="0" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -808,13 +809,13 @@
       <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="0" t="s">
         <v>14</v>
       </c>
       <c r="J1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -844,13 +845,13 @@
         <v>-265</v>
       </c>
       <c r="I2" s="0" t="n">
+        <v>-258</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>-79</v>
+      </c>
+      <c r="L2" s="0" t="n">
         <v>-286</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>-258</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>-79</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -879,13 +880,13 @@
         <v>-680</v>
       </c>
       <c r="I3" s="0" t="n">
+        <v>-656</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>-79</v>
+      </c>
+      <c r="L3" s="0" t="n">
         <v>-1067</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>-656</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>-79</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -914,19 +915,19 @@
         <v>-2132</v>
       </c>
       <c r="I4" s="0" t="n">
+        <v>-2047</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>-79</v>
+      </c>
+      <c r="L4" s="0" t="n">
         <v>-3450</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>-2047</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>-79</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>

--- a/results/counter.xlsx
+++ b/results/counter.xlsx
@@ -59,19 +59,19 @@
     <t xml:space="preserve">Thorp</t>
   </si>
   <si>
-    <t xml:space="preserve">High opt 1</t>
+    <t xml:space="preserve">High opt I</t>
   </si>
   <si>
-    <t xml:space="preserve">High opt 2</t>
+    <t xml:space="preserve">High opt II</t>
   </si>
   <si>
-    <t xml:space="preserve">Omega 2</t>
+    <t xml:space="preserve">KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omega II</t>
   </si>
   <si>
     <t xml:space="preserve">baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KO</t>
   </si>
 </sst>
 </file>
@@ -81,7 +81,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -102,6 +102,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,7 +179,2130 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF7E0021"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF83CAFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FFAECF00"/>
+      <rgbColor rgb="FFFFD320"/>
+      <rgbColor rgb="FFFF950E"/>
+      <rgbColor rgb="FFFF420E"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF579D1C"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF314004"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF4B1F6F"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Bet ratio = 10</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuille2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 levels, bound 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuille2!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuille2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5 levels, bound 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuille2!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuille2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 levels, bound 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuille2!$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuille2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5 levels, bound 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuille2!$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuille2!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thorp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuille2!$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuille2!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>High opt I</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuille2!$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuille2!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>High opt II</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="314004"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuille2!$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuille2!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="aecf00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuille2!$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuille2!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Omega II</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4b1f6f"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuille2!$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuille2!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff950e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuille2!$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="64044385"/>
+        <c:axId val="58324462"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="64044385"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="58324462"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="58324462"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Reward in thousand</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64044385"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Bet ratio = 30</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuille2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 levels, bound 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuille2!$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuille2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5 levels, bound 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuille2!$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuille2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 levels, bound 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuille2!$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuille2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5 levels, bound 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuille2!$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuille2!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thorp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuille2!$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuille2!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>High opt I</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuille2!$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuille2!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>High opt II</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="314004"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuille2!$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuille2!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="aecf00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuille2!$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuille2!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Omega II</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4b1f6f"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuille2!$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuille2!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff950e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuille2!$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="8755872"/>
+        <c:axId val="96404372"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="8755872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="96404372"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="96404372"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Reward in thousand</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8755872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Bet ratio = 100</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuille2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 levels, bound 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuille2!$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>270</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuille2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5 levels, bound 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuille2!$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuille2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 levels, bound 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuille2!$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>242</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuille2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5 levels, bound 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuille2!$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuille2!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thorp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuille2!$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>235</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuille2!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>High opt I</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuille2!$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuille2!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>High opt II</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="314004"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuille2!$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>226</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuille2!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="aecf00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuille2!$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuille2!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Omega II</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4b1f6f"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuille2!$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuille2!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff950e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuille2!$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="29504420"/>
+        <c:axId val="6137877"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="29504420"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="6137877"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="6137877"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Reward in thousand</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="29504420"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85680</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>17640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>378000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>5760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2428560" y="1155240"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>727920</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>150840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>239400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>139320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2289960" y="2264040"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>36000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>36360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>328320</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>24840</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="816840" y="686520"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -179,9 +2317,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -773,16 +2908,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L21" activeCellId="0" sqref="L21"/>
+      <selection pane="topLeft" activeCell="N14" activeCellId="0" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -812,10 +2944,10 @@
       <c r="I1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="0" t="s">
         <v>16</v>
       </c>
     </row>
@@ -836,22 +2968,22 @@
         <v>-71</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>-264</v>
+        <v>-51</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>-288</v>
+        <v>-65</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>-265</v>
+        <v>-51</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>-258</v>
-      </c>
-      <c r="J2" s="1" t="n">
+        <v>-57</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>-67</v>
+      </c>
+      <c r="K2" s="1" t="n">
         <v>-79</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>-286</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -871,22 +3003,22 @@
         <v>-53</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>-676</v>
+        <v>13</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>-753</v>
+        <v>-35</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>-680</v>
+        <v>10</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>-656</v>
-      </c>
-      <c r="J3" s="1" t="n">
+        <v>-7</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>-40</v>
+      </c>
+      <c r="K3" s="1" t="n">
         <v>-79</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>-1067</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -906,22 +3038,22 @@
         <v>9</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-2116</v>
+        <v>235</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>-2381</v>
+        <v>73</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>-2132</v>
+        <v>226</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>-2047</v>
-      </c>
-      <c r="J4" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="K4" s="1" t="n">
         <v>-79</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>-3450</v>
       </c>
     </row>
   </sheetData>
@@ -932,5 +3064,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/counter.xlsx
+++ b/results/counter.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="978" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille1" sheetId="1" state="visible" r:id="rId2"/>
@@ -242,7 +242,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -733,11 +733,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="64044385"/>
-        <c:axId val="58324462"/>
+        <c:axId val="21728147"/>
+        <c:axId val="99754452"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64044385"/>
+        <c:axId val="21728147"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -772,14 +772,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58324462"/>
+        <c:crossAx val="99754452"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58324462"/>
+        <c:axId val="99754452"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -861,7 +861,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64044385"/>
+        <c:crossAx val="21728147"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -898,7 +898,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1389,11 +1389,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="8755872"/>
-        <c:axId val="96404372"/>
+        <c:axId val="32078072"/>
+        <c:axId val="11511641"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="8755872"/>
+        <c:axId val="32078072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1428,14 +1428,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96404372"/>
+        <c:crossAx val="11511641"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96404372"/>
+        <c:axId val="11511641"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1517,7 +1517,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8755872"/>
+        <c:crossAx val="32078072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1554,7 +1554,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2045,11 +2045,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="29504420"/>
-        <c:axId val="6137877"/>
+        <c:axId val="41698765"/>
+        <c:axId val="28598854"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="29504420"/>
+        <c:axId val="41698765"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2084,14 +2084,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6137877"/>
+        <c:crossAx val="28598854"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6137877"/>
+        <c:axId val="28598854"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2173,7 +2173,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29504420"/>
+        <c:crossAx val="41698765"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2274,16 +2274,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>36000</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>36360</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>490680</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>113040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>328320</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:colOff>2160</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>101160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2291,7 +2291,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="816840" y="686520"/>
+        <a:off x="490680" y="2713680"/>
         <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2910,8 +2910,8 @@
   </sheetPr>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N14" activeCellId="0" sqref="N14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
